--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD11_VAL_Staff_150505.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD11_VAL_Staff_150505.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
-    <sheet name="B-E" sheetId="2" r:id="rId2"/>
-    <sheet name="F-I" sheetId="3" r:id="rId3"/>
-    <sheet name="J-L" sheetId="4" r:id="rId4"/>
-    <sheet name="M-Y" sheetId="5" r:id="rId5"/>
+    <sheet name="Leyenda" sheetId="6" r:id="rId2"/>
+    <sheet name="B-E" sheetId="2" r:id="rId3"/>
+    <sheet name="F-I" sheetId="3" r:id="rId4"/>
+    <sheet name="J-L" sheetId="4" r:id="rId5"/>
+    <sheet name="M-Y" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="522">
   <si>
     <t>Initials</t>
   </si>
@@ -1579,13 +1580,28 @@
   </si>
   <si>
     <t>Reporting Line</t>
+  </si>
+  <si>
+    <t>Maximum risk</t>
+  </si>
+  <si>
+    <t>Used risk</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El importe límite por encima del TCL, que puede asumir un director regional. </t>
+  </si>
+  <si>
+    <t>Cuando se ha enviado el material. Used risk = Importe - CLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,6 +1612,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1643,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1667,6 +1691,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1947,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,9 +2001,11 @@
     <col min="3" max="3" width="30.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1974,8 +2018,14 @@
       <c r="E2" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1985,7 +2035,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1995,7 +2045,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,7 +2055,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2065,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2025,7 +2075,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2085,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2095,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2055,7 +2105,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2065,7 +2115,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +2125,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -2085,7 +2135,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -2095,7 +2145,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2105,7 +2155,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2361,6 +2411,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="9"/>
+    <col min="3" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E57"/>
   <sheetViews>
@@ -2945,7 +3069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E45"/>
   <sheetViews>
@@ -3410,7 +3534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E55"/>
   <sheetViews>
@@ -3975,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E71"/>
   <sheetViews>
